--- a/evaluation/results/isolation_forest/augmented/noise_2/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/noise_2/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7303370786516854</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="C2">
-        <v>0.9212328767123288</v>
+        <v>0.5724217844727694</v>
       </c>
       <c r="D2">
-        <v>0.5037453183520599</v>
+        <v>0.9250936329588015</v>
       </c>
       <c r="E2">
-        <v>0.6513317191283293</v>
+        <v>0.7072297780959198</v>
       </c>
       <c r="F2">
-        <v>0.5539538714991763</v>
+        <v>0.8236078692897633</v>
       </c>
       <c r="G2">
-        <v>0.5126814250109955</v>
+        <v>0.9036797298248083</v>
       </c>
       <c r="H2">
-        <v>0.7303370786516854</v>
+        <v>0.7728559104490174</v>
       </c>
       <c r="I2">
-        <v>269</v>
+        <v>494</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>369</v>
       </c>
       <c r="K2">
-        <v>511</v>
+        <v>165</v>
       </c>
       <c r="L2">
-        <v>265</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6585051546391752</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="C2">
-        <v>0.9569288389513109</v>
+        <v>0.3089887640449438</v>
       </c>
       <c r="D2">
-        <v>0.7801526717557252</v>
+        <v>0.4465493910690122</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.9212328767123288</v>
+        <v>0.5724217844727694</v>
       </c>
       <c r="C3">
-        <v>0.5037453183520599</v>
+        <v>0.9250936329588015</v>
       </c>
       <c r="D3">
-        <v>0.6513317191283293</v>
+        <v>0.7072297780959198</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7303370786516854</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="C4">
-        <v>0.7303370786516854</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="D4">
-        <v>0.7303370786516854</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="E4">
-        <v>0.7303370786516854</v>
+        <v>0.6170411985018727</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.789869015675752</v>
+        <v>0.6886499166266287</v>
       </c>
       <c r="C5">
-        <v>0.7303370786516854</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="D5">
-        <v>0.7157421954420273</v>
+        <v>0.576889584582466</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7898690156757521</v>
+        <v>0.6886499166266286</v>
       </c>
       <c r="C6">
-        <v>0.7303370786516854</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="D6">
-        <v>0.7157421954420272</v>
+        <v>0.5768895845824661</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>511</v>
+        <v>165</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>269</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
